--- a/src/data/cwe-rules-filtered/all_cwe_filtered.xlsx
+++ b/src/data/cwe-rules-filtered/all_cwe_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="32">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,31 +37,79 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'CWE-200', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-327'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-276', 'CWE-200', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-532'})</t>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312'})</t>
   </si>
   <si>
     <t>frozenset({'CWE-312', 'CWE-330'})</t>
   </si>
   <si>
-    <t>frozenset({'CWE-312', 'CWE-330', 'CWE-327', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-200', 'CWE-532', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-200', 'CWE-327', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-327', 'CWE-200', 'CWE-532', 'CWE-89'})</t>
+    <t>frozenset({'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-89', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-312', 'CWE-532', 'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-276'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-276', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -419,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,120 +495,1582 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.008466603951082</v>
+      </c>
+      <c r="F2">
+        <v>0.007205112497215448</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.8591417910447762</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.008466603951082</v>
+      </c>
+      <c r="F3">
+        <v>0.007212944141234191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>0.6511194029850746</v>
-      </c>
-      <c r="D2">
-        <v>0.934404283801874</v>
-      </c>
-      <c r="E2">
-        <v>1.138274309358647</v>
-      </c>
-      <c r="F2">
-        <v>0.07909612385832032</v>
-      </c>
-      <c r="G2">
-        <v>2.730429485226924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0.9029850746268656</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.008466603951082</v>
+      </c>
+      <c r="F4">
+        <v>0.007581031410113681</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>0.6511194029850746</v>
-      </c>
-      <c r="D3">
-        <v>0.7931818181818182</v>
-      </c>
-      <c r="E3">
-        <v>1.138274309358647</v>
-      </c>
-      <c r="F3">
-        <v>0.07909612385832032</v>
-      </c>
-      <c r="G3">
-        <v>1.465884861407249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0.6082089552238806</v>
-      </c>
-      <c r="D4">
-        <v>0.9340974212034384</v>
-      </c>
-      <c r="E4">
-        <v>1.137900494920552</v>
-      </c>
-      <c r="F4">
-        <v>0.07370795277344623</v>
-      </c>
-      <c r="G4">
-        <v>2.717715768981181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.6511194029850746</v>
+        <v>0.9048507462686568</v>
       </c>
       <c r="D5">
-        <v>0.7913832199546486</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1.135693188475747</v>
+        <v>1.008466603951082</v>
       </c>
       <c r="F5">
-        <v>0.0777960709512141</v>
-      </c>
-      <c r="G5">
-        <v>1.453246674237508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.007596694698151052</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="D6">
+        <v>0.9989142236699241</v>
+      </c>
+      <c r="E6">
+        <v>1.015010471823847</v>
+      </c>
+      <c r="F6">
+        <v>0.01269161422365772</v>
+      </c>
+      <c r="G6">
+        <v>14.60541044776114</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="D7">
+        <v>0.9989142236699241</v>
+      </c>
+      <c r="E7">
+        <v>1.011176626793351</v>
+      </c>
+      <c r="F7">
+        <v>0.009485861271998242</v>
+      </c>
+      <c r="G7">
+        <v>11.16884328358208</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D8">
+        <v>0.9988610478359908</v>
+      </c>
+      <c r="E8">
+        <v>1.011122798187141</v>
+      </c>
+      <c r="F8">
+        <v>0.00899942916016927</v>
+      </c>
+      <c r="G8">
+        <v>10.64738805970098</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>0.6511194029850746</v>
-      </c>
-      <c r="D6">
-        <v>0.7913832199546486</v>
-      </c>
-      <c r="E6">
-        <v>1.135693188475747</v>
-      </c>
-      <c r="F6">
-        <v>0.0777960709512141</v>
-      </c>
-      <c r="G6">
-        <v>1.453246674237508</v>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.8833955223880597</v>
+      </c>
+      <c r="D9">
+        <v>0.9989451476793249</v>
+      </c>
+      <c r="E9">
+        <v>1.007402820613581</v>
+      </c>
+      <c r="F9">
+        <v>0.006491562708843879</v>
+      </c>
+      <c r="G9">
+        <v>7.958955223880311</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0.9029850746268656</v>
+      </c>
+      <c r="D10">
+        <v>0.997938144329897</v>
+      </c>
+      <c r="E10">
+        <v>1.014018664191137</v>
+      </c>
+      <c r="F10">
+        <v>0.01248364056582762</v>
+      </c>
+      <c r="G10">
+        <v>7.691231343283999</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D11">
+        <v>0.9977324263038551</v>
+      </c>
+      <c r="E11">
+        <v>1.013809631277472</v>
+      </c>
+      <c r="F11">
+        <v>0.0111818472933839</v>
+      </c>
+      <c r="G11">
+        <v>6.99347014925393</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.9029850746268656</v>
+      </c>
+      <c r="D12">
+        <v>0.997938144329897</v>
+      </c>
+      <c r="E12">
+        <v>1.010188565365108</v>
+      </c>
+      <c r="F12">
+        <v>0.009107331811093909</v>
+      </c>
+      <c r="G12">
+        <v>5.881529850746603</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D13">
+        <v>0.9977324263038551</v>
+      </c>
+      <c r="E13">
+        <v>1.009980321999747</v>
+      </c>
+      <c r="F13">
+        <v>0.008111842838048666</v>
+      </c>
+      <c r="G13">
+        <v>5.347947761194195</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.8815298507462687</v>
+      </c>
+      <c r="D14">
+        <v>0.9968354430379748</v>
+      </c>
+      <c r="E14">
+        <v>1.009072327607846</v>
+      </c>
+      <c r="F14">
+        <v>0.007925623746936949</v>
+      </c>
+      <c r="G14">
+        <v>3.832089552238784</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0.8805970149253731</v>
+      </c>
+      <c r="D15">
+        <v>0.9957805907172996</v>
+      </c>
+      <c r="E15">
+        <v>1.011826344311796</v>
+      </c>
+      <c r="F15">
+        <v>0.01029252060592545</v>
+      </c>
+      <c r="G15">
+        <v>3.758395522387993</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0.8125</v>
+      </c>
+      <c r="D16">
+        <v>0.9965675057208238</v>
+      </c>
+      <c r="E16">
+        <v>1.008801101164044</v>
+      </c>
+      <c r="F16">
+        <v>0.007088508019603369</v>
+      </c>
+      <c r="G16">
+        <v>3.532960199004928</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0.9841417910447762</v>
+      </c>
+      <c r="D17">
+        <v>0.9962228517469311</v>
+      </c>
+      <c r="E17">
+        <v>1.00465747607969</v>
+      </c>
+      <c r="F17">
+        <v>0.004562367732234396</v>
+      </c>
+      <c r="G17">
+        <v>2.222714552238864</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.8190298507462687</v>
+      </c>
+      <c r="D18">
+        <v>0.9533116178067318</v>
+      </c>
+      <c r="E18">
+        <v>1.05355675699878</v>
+      </c>
+      <c r="F18">
+        <v>0.04163475996881261</v>
+      </c>
+      <c r="G18">
+        <v>2.037964248524817</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D19">
+        <v>0.9532608695652174</v>
+      </c>
+      <c r="E19">
+        <v>1.05350067234424</v>
+      </c>
+      <c r="F19">
+        <v>0.04154600133660058</v>
+      </c>
+      <c r="G19">
+        <v>2.035751475182229</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D20">
+        <v>0.9532608695652174</v>
+      </c>
+      <c r="E20">
+        <v>1.05350067234424</v>
+      </c>
+      <c r="F20">
+        <v>0.04154600133660058</v>
+      </c>
+      <c r="G20">
+        <v>2.035751475182229</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D21">
+        <v>0.9522258414766558</v>
+      </c>
+      <c r="E21">
+        <v>1.054531097172495</v>
+      </c>
+      <c r="F21">
+        <v>0.04230480062374686</v>
+      </c>
+      <c r="G21">
+        <v>2.030698778833105</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>0.9841417910447762</v>
+      </c>
+      <c r="D22">
+        <v>0.9924741298212608</v>
+      </c>
+      <c r="E22">
+        <v>1.00465747607969</v>
+      </c>
+      <c r="F22">
+        <v>0.004562367732234396</v>
+      </c>
+      <c r="G22">
+        <v>1.611357276119429</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D23">
+        <v>0.90599173553719</v>
+      </c>
+      <c r="E23">
+        <v>1.054531097172495</v>
+      </c>
+      <c r="F23">
+        <v>0.04230480062374686</v>
+      </c>
+      <c r="G23">
+        <v>1.498359849106116</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>0.8190298507462687</v>
+      </c>
+      <c r="D24">
+        <v>0.9051546391752576</v>
+      </c>
+      <c r="E24">
+        <v>1.05355675699878</v>
+      </c>
+      <c r="F24">
+        <v>0.04163475996881261</v>
+      </c>
+      <c r="G24">
+        <v>1.485135463984425</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0.8190298507462687</v>
+      </c>
+      <c r="D25">
+        <v>0.9051546391752576</v>
+      </c>
+      <c r="E25">
+        <v>1.05355675699878</v>
+      </c>
+      <c r="F25">
+        <v>0.04163475996881261</v>
+      </c>
+      <c r="G25">
+        <v>1.485135463984425</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D26">
+        <v>0.9041237113402062</v>
+      </c>
+      <c r="E26">
+        <v>1.05350067234424</v>
+      </c>
+      <c r="F26">
+        <v>0.04154600133660058</v>
+      </c>
+      <c r="G26">
+        <v>1.478895843363826</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D27">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="E27">
+        <v>1.030228900926088</v>
+      </c>
+      <c r="F27">
+        <v>0.02408665627088446</v>
+      </c>
+      <c r="G27">
+        <v>1.403451492537315</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D28">
+        <v>0.9312169312169312</v>
+      </c>
+      <c r="E28">
+        <v>1.029138711612938</v>
+      </c>
+      <c r="F28">
+        <v>0.02324257908220096</v>
+      </c>
+      <c r="G28">
+        <v>1.383323765786454</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D29">
+        <v>0.9292502639915524</v>
+      </c>
+      <c r="E29">
+        <v>1.029087069213785</v>
+      </c>
+      <c r="F29">
+        <v>0.02320255067943855</v>
+      </c>
+      <c r="G29">
+        <v>1.371240810871018</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>0.8227611940298507</v>
+      </c>
+      <c r="D30">
+        <v>0.9303797468354428</v>
+      </c>
+      <c r="E30">
+        <v>1.028213493409892</v>
+      </c>
+      <c r="F30">
+        <v>0.02257601915794161</v>
+      </c>
+      <c r="G30">
+        <v>1.366689280868383</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D31">
+        <v>0.9282700421940928</v>
+      </c>
+      <c r="E31">
+        <v>1.028001534330648</v>
+      </c>
+      <c r="F31">
+        <v>0.02236021385609266</v>
+      </c>
+      <c r="G31">
+        <v>1.352502194907813</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>0.8227611940298507</v>
+      </c>
+      <c r="D32">
+        <v>0.909278350515464</v>
+      </c>
+      <c r="E32">
+        <v>1.029299252114654</v>
+      </c>
+      <c r="F32">
+        <v>0.02342009634662501</v>
+      </c>
+      <c r="G32">
+        <v>1.28529935549525</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D33">
+        <v>0.9072164948453608</v>
+      </c>
+      <c r="E33">
+        <v>1.029138711612938</v>
+      </c>
+      <c r="F33">
+        <v>0.02324257908220096</v>
+      </c>
+      <c r="G33">
+        <v>1.276844941956884</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>0.8227611940298507</v>
+      </c>
+      <c r="D34">
+        <v>0.909278350515464</v>
+      </c>
+      <c r="E34">
+        <v>1.028213493409892</v>
+      </c>
+      <c r="F34">
+        <v>0.02257601915794161</v>
+      </c>
+      <c r="G34">
+        <v>1.275016960651288</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D35">
+        <v>0.9090909090909092</v>
+      </c>
+      <c r="E35">
+        <v>1.028001534330648</v>
+      </c>
+      <c r="F35">
+        <v>0.02236021385609266</v>
+      </c>
+      <c r="G35">
+        <v>1.272388059701492</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>0.9029850746268656</v>
+      </c>
+      <c r="D36">
+        <v>0.9175355450236968</v>
+      </c>
+      <c r="E36">
+        <v>1.014018664191137</v>
+      </c>
+      <c r="F36">
+        <v>0.01248364056582762</v>
+      </c>
+      <c r="G36">
+        <v>1.153821410190428</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>0.9029850746268656</v>
+      </c>
+      <c r="D37">
+        <v>0.9140698772426818</v>
+      </c>
+      <c r="E37">
+        <v>1.010188565365108</v>
+      </c>
+      <c r="F37">
+        <v>0.009107331811093909</v>
+      </c>
+      <c r="G37">
+        <v>1.107286370346073</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>0.8805970149253731</v>
+      </c>
+      <c r="D38">
+        <v>0.8947867298578198</v>
+      </c>
+      <c r="E38">
+        <v>1.011826344311796</v>
+      </c>
+      <c r="F38">
+        <v>0.01029252060592545</v>
+      </c>
+      <c r="G38">
+        <v>1.099401640446415</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>0.9029850746268656</v>
+      </c>
+      <c r="D39">
+        <v>0.9106302916274696</v>
+      </c>
+      <c r="E39">
+        <v>1.008466603951082</v>
+      </c>
+      <c r="F39">
+        <v>0.007581031410113681</v>
+      </c>
+      <c r="G39">
+        <v>1.085545954438336</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>0.8805970149253731</v>
+      </c>
+      <c r="D40">
+        <v>0.8914069877242682</v>
+      </c>
+      <c r="E40">
+        <v>1.009068944921241</v>
+      </c>
+      <c r="F40">
+        <v>0.007914311372243188</v>
+      </c>
+      <c r="G40">
+        <v>1.073775146009085</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="D41">
+        <v>0.8687440982058546</v>
+      </c>
+      <c r="E41">
+        <v>1.011176626793351</v>
+      </c>
+      <c r="F41">
+        <v>0.009485861271998242</v>
+      </c>
+      <c r="G41">
+        <v>1.073157145925051</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D42">
+        <v>0.8341232227488151</v>
+      </c>
+      <c r="E42">
+        <v>1.013809631277472</v>
+      </c>
+      <c r="F42">
+        <v>0.0111818472933839</v>
+      </c>
+      <c r="G42">
+        <v>1.068496801705757</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>0.8805970149253731</v>
+      </c>
+      <c r="D43">
+        <v>0.8880526810912512</v>
+      </c>
+      <c r="E43">
+        <v>1.00739944352362</v>
+      </c>
+      <c r="F43">
+        <v>0.006468067776787767</v>
+      </c>
+      <c r="G43">
+        <v>1.058266963501819</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="D44">
+        <v>0.8654750705550329</v>
+      </c>
+      <c r="E44">
+        <v>1.008466603951082</v>
+      </c>
+      <c r="F44">
+        <v>0.007205112497215448</v>
+      </c>
+      <c r="G44">
+        <v>1.054013151028077</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>0.8180970149253731</v>
+      </c>
+      <c r="D45">
+        <v>0.8281397544853636</v>
+      </c>
+      <c r="E45">
+        <v>1.011122798187141</v>
+      </c>
+      <c r="F45">
+        <v>0.00899942916016927</v>
+      </c>
+      <c r="G45">
+        <v>1.053007626701657</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="D46">
+        <v>0.8309726156751653</v>
+      </c>
+      <c r="E46">
+        <v>1.009980321999747</v>
+      </c>
+      <c r="F46">
+        <v>0.008111842838048666</v>
+      </c>
+      <c r="G46">
+        <v>1.048580421912783</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>0.8115671641791045</v>
+      </c>
+      <c r="D47">
+        <v>0.8215297450424929</v>
+      </c>
+      <c r="E47">
+        <v>1.009953998492606</v>
+      </c>
+      <c r="F47">
+        <v>0.007998719091111606</v>
+      </c>
+      <c r="G47">
+        <v>1.045368396114664</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>0.8125</v>
+      </c>
+      <c r="D48">
+        <v>0.8224740321057602</v>
+      </c>
+      <c r="E48">
+        <v>1.008801101164044</v>
+      </c>
+      <c r="F48">
+        <v>0.007088508019603369</v>
+      </c>
+      <c r="G48">
+        <v>1.040419577643696</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>0.8190298507462687</v>
+      </c>
+      <c r="D49">
+        <v>0.8259642521166509</v>
+      </c>
+      <c r="E49">
+        <v>1.008466603951082</v>
+      </c>
+      <c r="F49">
+        <v>0.006876183448429551</v>
+      </c>
+      <c r="G49">
+        <v>1.039844695441711</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>0.8115671641791045</v>
+      </c>
+      <c r="D50">
+        <v>0.8184383819379116</v>
+      </c>
+      <c r="E50">
+        <v>1.007308777769737</v>
+      </c>
+      <c r="F50">
+        <v>0.005888526119403048</v>
+      </c>
+      <c r="G50">
+        <v>1.032707253886011</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
